--- a/regression/all_results.xlsx
+++ b/regression/all_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Daniela\Estudio\Universidad\10semestre\Statistical Learning\Statistical_project\regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E2A122-AA43-4022-B375-D16EB6B5A737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F209E26-8CF2-4E53-87B2-0A070DB04FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B064140F-6421-4523-9A5C-7CE047A5242E}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{B064140F-6421-4523-9A5C-7CE047A5242E}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>MSE</t>
-  </si>
-  <si>
     <t>Kbest</t>
   </si>
   <si>
@@ -64,14 +61,25 @@
   </si>
   <si>
     <t>n_features</t>
+  </si>
+  <si>
+    <t>MAE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -108,6 +116,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB1ED90-6F99-46DC-95BA-ACB7A3A3DC77}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,30 +446,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7.4496657238364596</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>7.4496657238364596</v>
+        <v>8.0140781691951606</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,10 +490,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1">
-        <v>8.0140781691951606</v>
+        <v>7.4031241964515297</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -477,10 +501,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1">
-        <v>7.4031241964515297</v>
+        <v>7.3238621753664104</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,21 +512,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1">
-        <v>7.3238621753664104</v>
+        <v>7.6920000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1">
-        <v>7.6920000000000002</v>
+        <v>7.4192</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -510,77 +534,72 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1">
-        <v>7.4192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+        <v>7.3167266649524301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7.3169838004628396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
         <v>80</v>
       </c>
-      <c r="C10" s="1">
-        <v>7.3167266649524301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
+      <c r="C14" s="1">
+        <v>7.3169838004628396</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1">
-        <v>7.3169838004628396</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1">
-        <v>80</v>
-      </c>
-      <c r="C16" s="1">
-        <v>7.3169838004628396</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1">
         <v>7.3000771406531202</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="3"/>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C1048576">
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C3:C10 C12:C1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
